--- a/microsoft-365/managed-desktop/get-ready/downloads/WiFi-profile -template.xlsx
+++ b/microsoft-365/managed-desktop/get-ready/downloads/WiFi-profile -template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamshep\OneDrive - Microsoft\MMD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaimeo\microsoft-365-docs-pr\microsoft-365\managed-desktop\get-ready\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{C118B873-6458-4A1E-84BC-C0859A9451F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9601101F-B881-4AB0-9CC3-E3BDE0391E06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059426E3-5DB5-4D1B-9709-A959E65ED983}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="22485" windowHeight="14400" xr2:uid="{29973037-B366-4275-B08D-55542FFD3B74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{29973037-B366-4275-B08D-55542FFD3B74}"/>
   </bookViews>
   <sheets>
     <sheet name="WiFi Profile Request Template" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     </r>
   </si>
   <si>
-    <t>WiFi Profile Requirements Template</t>
-  </si>
-  <si>
     <t>Enterprise</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>&lt;Name of Windows 10 PKCS or SCEP profile&gt;</t>
+  </si>
+  <si>
+    <t>WiFi profile requirements template</t>
   </si>
   <si>
     <r>
@@ -395,10 +395,10 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">If a WiFi profile is needed for MMD devices to configure corporate network access, fill out this template to collect the required details.  
-Once the details are completed, create the required WiFi profile using Microsoft Intune.   For more details on WiFi Profiles in Intune:  
-https://docs.microsoft.com/en-us/intune/wi-fi-settings-windows 
-Test the policy against a test machine and once validated submit a request to the Microsoft Managed Desktop operations team through the Microsoft Managed Desktop portal to have the policy distributed to your Microsoft Managed Desktop devices. 
+      <t xml:space="preserve">If a WiFi profile is needed for Microsoft Managed Desktop devices to configure corporate network access, fill out this template to collect the required details.  
+Once the details are completed, create the required WiFi profile using Microsoft Intune.  For more details on WiFi profiles in Intune, see  
+https://docs.microsoft.com/intune/wi-fi-settings-windows 
+Test the policy against a test device and once validated submit a request to the Microsoft Managed Desktop Operations team through the Microsoft Managed Desktop Admin Portal to have the policy distributed to your Microsoft Managed Desktop devices. 
 </t>
     </r>
     <r>
@@ -1068,41 +1068,41 @@
       <selection activeCell="G9" sqref="G9:M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.3984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="60.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1132,13 +1132,13 @@
       <c r="L10" s="25"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
@@ -1148,7 +1148,7 @@
       <c r="L11" s="25"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1160,10 +1160,10 @@
       <c r="L12" s="25"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="11"/>
@@ -1175,7 +1175,7 @@
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="11"/>
@@ -1187,9 +1187,9 @@
       <c r="L14" s="25"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="11"/>
@@ -1201,7 +1201,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="D16" s="11"/>
@@ -1213,9 +1213,9 @@
       <c r="L16" s="25"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="11"/>
@@ -1227,7 +1227,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="11"/>
@@ -1239,9 +1239,9 @@
       <c r="L18" s="25"/>
       <c r="M18" s="26"/>
     </row>
-    <row r="19" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="11"/>
@@ -1253,7 +1253,7 @@
       <c r="L19" s="25"/>
       <c r="M19" s="26"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="11"/>
@@ -1265,9 +1265,9 @@
       <c r="L20" s="25"/>
       <c r="M20" s="26"/>
     </row>
-    <row r="21" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="11"/>
@@ -1279,7 +1279,7 @@
       <c r="L21" s="25"/>
       <c r="M21" s="26"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="11"/>
@@ -1291,9 +1291,9 @@
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="11"/>
@@ -1305,7 +1305,7 @@
       <c r="L23" s="25"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="11"/>
@@ -1317,9 +1317,9 @@
       <c r="L24" s="25"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="11"/>
@@ -1331,7 +1331,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="11"/>
@@ -1343,9 +1343,9 @@
       <c r="L26" s="25"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="11"/>
@@ -1357,7 +1357,7 @@
       <c r="L27" s="25"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="4"/>
       <c r="D28" s="11"/>
@@ -1369,9 +1369,9 @@
       <c r="L28" s="25"/>
       <c r="M28" s="26"/>
     </row>
-    <row r="29" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="11"/>
@@ -1383,7 +1383,7 @@
       <c r="L29" s="25"/>
       <c r="M29" s="26"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="11"/>
@@ -1395,9 +1395,9 @@
       <c r="L30" s="25"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="11"/>
@@ -1409,7 +1409,7 @@
       <c r="L31" s="25"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="4"/>
       <c r="D32" s="11"/>
@@ -1421,9 +1421,9 @@
       <c r="L32" s="25"/>
       <c r="M32" s="26"/>
     </row>
-    <row r="33" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="11"/>
@@ -1435,7 +1435,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="26"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="4"/>
       <c r="D34" s="11"/>
@@ -1447,9 +1447,9 @@
       <c r="L34" s="25"/>
       <c r="M34" s="26"/>
     </row>
-    <row r="35" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="11"/>
@@ -1461,7 +1461,7 @@
       <c r="L35" s="25"/>
       <c r="M35" s="26"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="4"/>
       <c r="D36" s="11"/>
@@ -1473,9 +1473,9 @@
       <c r="L36" s="25"/>
       <c r="M36" s="26"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="11"/>
@@ -1487,7 +1487,7 @@
       <c r="L37" s="25"/>
       <c r="M37" s="26"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="4"/>
       <c r="D38" s="11"/>
@@ -1499,9 +1499,9 @@
       <c r="L38" s="25"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="2:13" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="11"/>
@@ -1513,7 +1513,7 @@
       <c r="L39" s="25"/>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="4"/>
       <c r="D40" s="11"/>
@@ -1525,9 +1525,9 @@
       <c r="L40" s="25"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="11"/>
@@ -1539,7 +1539,7 @@
       <c r="L41" s="25"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="4"/>
       <c r="D42" s="11"/>
@@ -1551,9 +1551,9 @@
       <c r="L42" s="25"/>
       <c r="M42" s="26"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
@@ -1565,7 +1565,7 @@
       <c r="L43" s="25"/>
       <c r="M43" s="26"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="4"/>
       <c r="D44" s="11"/>
@@ -1577,9 +1577,9 @@
       <c r="L44" s="25"/>
       <c r="M44" s="26"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="11"/>
@@ -1591,7 +1591,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="26"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="4"/>
       <c r="D46" s="11"/>
@@ -1603,9 +1603,9 @@
       <c r="L46" s="25"/>
       <c r="M46" s="26"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -1617,7 +1617,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="26"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -1629,440 +1629,440 @@
       <c r="L48" s="28"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="2:4" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="4"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="4"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
       <c r="C58" s="4"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
       <c r="C60" s="4"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="13"/>
       <c r="C62" s="4"/>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="4"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="13"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="18"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="13"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:4" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
       <c r="C72" s="4"/>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="13"/>
       <c r="C74" s="4"/>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="4"/>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
       <c r="C78" s="4"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
       <c r="C80" s="4"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="4"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
       <c r="C84" s="4"/>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="11"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="13"/>
       <c r="C86" s="4"/>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="4"/>
       <c r="D88" s="11"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="18"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="13"/>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="2:4" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B95" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="13"/>
       <c r="C96" s="4"/>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="16"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="13"/>
       <c r="C98" s="4"/>
       <c r="D98" s="11"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
       <c r="C100" s="4"/>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="13"/>
       <c r="C102" s="4"/>
       <c r="D102" s="17"/>
     </row>
-    <row r="103" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B103" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="17"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
       <c r="C104" s="4"/>
       <c r="D104" s="17"/>
     </row>
-    <row r="105" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="13"/>
       <c r="C106" s="4"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="11"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
       <c r="C108" s="4"/>
       <c r="D108" s="11"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="11"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
       <c r="C110" s="4"/>
       <c r="D110" s="11"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="4"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="13"/>
       <c r="C114" s="4"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="2:4" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B115" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="18"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
       <c r="C116" s="4"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="2:4" ht="46.15" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="C118" s="4"/>
       <c r="D118" s="11"/>
